--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17600" yWindow="4320" windowWidth="20240" windowHeight="17960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="17600" yWindow="4320" windowWidth="20240" windowHeight="17960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>URL:</t>
   </si>
@@ -111,9 +111,6 @@
     <t>//*[@id="layerSelector"]/ul/li[9]</t>
   </si>
   <si>
-    <t>//*[@id="layerSelector"]/ul/li[10]</t>
-  </si>
-  <si>
     <t>Ferry Status</t>
   </si>
   <si>
@@ -124,6 +121,30 @@
   </si>
   <si>
     <t>images/roadReports/ky_flooding_layer.png</t>
+  </si>
+  <si>
+    <t>Cameras</t>
+  </si>
+  <si>
+    <t>images/cameras/cameras_layer.gif</t>
+  </si>
+  <si>
+    <t>Google Speeds and Incidents</t>
+  </si>
+  <si>
+    <t>images/traffic/traffic_layer.gif</t>
+  </si>
+  <si>
+    <t>Other States' Info</t>
+  </si>
+  <si>
+    <t>http://icons.carsprogram.org/LA/TGWeb/tg_info_routine.png</t>
+  </si>
+  <si>
+    <t>Adjustresolution:</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -453,35 +474,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -492,15 +554,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -579,10 +641,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>22</v>
@@ -593,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -606,8 +668,12 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
@@ -616,8 +682,12 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
@@ -626,21 +696,21 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>URL:</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Adjustresolution:</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,8 +508,8 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
+      <c r="D2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17600" yWindow="4320" windowWidth="20240" windowHeight="17960" tabRatio="500"/>
+    <workbookView xWindow="18040" yWindow="4740" windowWidth="20240" windowHeight="17960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,6 +541,9 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="4740" windowWidth="20240" windowHeight="17960" tabRatio="500"/>
+    <workbookView xWindow="21860" yWindow="4140" windowWidth="20240" windowHeight="17960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21860" yWindow="4140" windowWidth="20240" windowHeight="17960" tabRatio="500"/>
+    <workbookView xWindow="25300" yWindow="12840" windowWidth="12780" windowHeight="9440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>URL:</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Adjustresolution:</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +487,7 @@
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,8 +500,11 @@
       <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -511,32 +517,35 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25300" yWindow="12840" windowWidth="12780" windowHeight="9440" tabRatio="500"/>
+    <workbookView xWindow="12060" yWindow="12400" windowWidth="18840" windowHeight="10140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyMapLayers" sheetId="2" r:id="rId2"/>
+    <sheet name="VerifyLegend" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>URL:</t>
   </si>
@@ -145,6 +146,39 @@
   </si>
   <si>
     <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+  </si>
+  <si>
+    <t>Legend Icons:</t>
+  </si>
+  <si>
+    <t>Alts:</t>
+  </si>
+  <si>
+    <t>Img srcs:</t>
+  </si>
+  <si>
+    <t>Closure icon</t>
+  </si>
+  <si>
+    <t>Restriction icon</t>
   </si>
 </sst>
 </file>
@@ -477,7 +511,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,4 +776,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="12400" windowWidth="18840" windowHeight="10140" tabRatio="500"/>
+    <workbookView xWindow="19300" yWindow="12320" windowWidth="18840" windowHeight="10140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="12320" windowWidth="18840" windowHeight="10140" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="1000" windowWidth="18840" windowHeight="10140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -511,7 +511,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -511,7 +511,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="18840" windowHeight="10140" tabRatio="500"/>
+    <workbookView xWindow="15040" yWindow="4100" windowWidth="18840" windowHeight="10140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="4100" windowWidth="18840" windowHeight="10140" tabRatio="500"/>
+    <workbookView xWindow="15400" yWindow="5480" windowWidth="15260" windowHeight="11300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="5480" windowWidth="15260" windowHeight="11300" tabRatio="500"/>
+    <workbookView xWindow="-15820" yWindow="960" windowWidth="15260" windowHeight="11300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15820" yWindow="960" windowWidth="15260" windowHeight="11300" tabRatio="500"/>
+    <workbookView xWindow="-16660" yWindow="600" windowWidth="16500" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/DataLA.xlsx
+++ b/DataLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-16660" yWindow="600" windowWidth="16500" windowHeight="15060" tabRatio="500"/>
+    <workbookView xWindow="-17020" yWindow="1400" windowWidth="16500" windowHeight="11360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
